--- a/biology/Zoologie/Epitheria/Epitheria.xlsx
+++ b/biology/Zoologie/Epitheria/Epitheria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Épithériens
 Les Épitheriens (Epitheria) forment un possible clade regroupant tous les mammifères placentaires à l'exception des Xénarthres. Leur caractéristique principale, hormis le fait qu'ils possèdent des dents, est que le péroné de leurs membres est plus court que le tibia, l'empêchant ainsi de toucher le fémur.
-Les analyses génétiques opérées dans les années 1990[1] ont profondément remanié ce taxon.
+Les analyses génétiques opérées dans les années 1990 ont profondément remanié ce taxon.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Hypothèses alternatives</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart des études s'accordent à reconnaître quatre super-ordres au sein des mammifères placentaires : Xenarthra, Afrotheria, Euarchontoglires et Laurasiatheria, les deux derniers regroupés dans le clade Boreoeutheria. Les relations entre ces autres groupes font débat et leur phylogénie n'est toujours pas résolue :
 </t>
